--- a/xlsx/伊拉克_intext.xlsx
+++ b/xlsx/伊拉克_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="681">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="666">
   <si>
     <t>伊拉克</t>
   </si>
@@ -26,16 +26,16 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E8%AA%9E</t>
   </si>
   <si>
-    <t>阿拉伯語</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_伊拉克</t>
+    <t>阿拉伯语</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_伊拉克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%AB%E5%BE%B7%E8%AA%9E</t>
   </si>
   <si>
-    <t>庫德語</t>
+    <t>库德语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%8B%89%E5%85%8B%E5%9B%BD%E6%97%97</t>
@@ -59,7 +59,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%88%91%E7%9A%84%E5%AE%B6%E9%84%89</t>
   </si>
   <si>
-    <t>我的家鄉</t>
+    <t>我的家乡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%A0%BC%E8%BE%BE</t>
@@ -71,9 +71,6 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E8%AF%AD</t>
   </si>
   <si>
-    <t>阿拉伯语</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%93%E5%B0%94%E5%BE%B7%E8%AF%AD</t>
   </si>
   <si>
@@ -155,7 +152,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%8B%89%E5%85%8B%E7%8E%8B%E5%9C%8B</t>
   </si>
   <si>
-    <t>伊拉克王國</t>
+    <t>伊拉克王国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%8B%89%E5%85%8B%E5%9C%B0%E7%90%86</t>
@@ -245,7 +242,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%8B%89%E5%85%8B%E7%AC%AC%E7%B4%8D%E7%88%BE</t>
   </si>
   <si>
-    <t>伊拉克第納爾</t>
+    <t>伊拉克第纳尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/ISO_4217</t>
@@ -365,13 +362,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E7%B4%A2%E4%B8%8D%E9%81%94%E7%B1%B3%E4%BA%9E%E5%B9%B3%E5%8E%9F</t>
   </si>
   <si>
-    <t>美索不達米亞平原</t>
+    <t>美索不达米亚平原</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E7%BE%8E%E7%88%BE%E6%96%87%E6%98%8E</t>
   </si>
   <si>
-    <t>蘇美爾文明</t>
+    <t>苏美尔文明</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%AF%94%E4%BC%A6</t>
@@ -401,21 +398,18 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>波斯帝國</t>
+    <t>波斯帝国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%AD%B7%E5%B1%B1%E5%A4%A7%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>亞歷山大帝國</t>
+    <t>亚历山大帝国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%AF%94%E5%80%AB</t>
   </si>
   <si>
-    <t>巴比倫</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E7%90%89%E5%8F%A4%E7%8E%8B%E6%9C%9D</t>
   </si>
   <si>
@@ -425,19 +419,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E7%90%89%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>塞琉西亞</t>
+    <t>塞琉西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E6%81%AF%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>安息帝國</t>
+    <t>安息帝国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E7%8F%8A%E7%8E%8B%E6%9C%9D</t>
   </si>
   <si>
-    <t>薩珊王朝</t>
+    <t>萨珊王朝</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E8%A5%BF%E5%B0%81</t>
@@ -545,19 +539,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%A6%8F%E6%A8%A1%E6%AF%80%E6%BB%85%E6%80%A7%E6%AD%A6%E5%99%A8</t>
   </si>
   <si>
-    <t>大規模毀滅性武器</t>
+    <t>大规模毁灭性武器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%8B%89%E5%85%8B%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>伊拉克戰爭</t>
+    <t>伊拉克战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E8%BB%8D%E4%BD%94%E9%A0%98%E4%BC%8A%E6%8B%89%E5%85%8B</t>
   </si>
   <si>
-    <t>美軍佔領伊拉克</t>
+    <t>美军佔领伊拉克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E9%95%BF%E5%AE%98</t>
@@ -629,19 +623,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E8%BB%8D</t>
   </si>
   <si>
-    <t>美軍</t>
+    <t>美军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%8B%89%E5%85%8B%E5%92%8C%E9%BB%8E%E5%87%A1%E7%89%B9%E4%BC%8A%E6%96%AF%E8%98%AD%E5%9C%8B</t>
   </si>
   <si>
-    <t>伊拉克和黎凡特伊斯蘭國</t>
+    <t>伊拉克和黎凡特伊斯兰国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E8%98%87%E7%88%BE</t>
   </si>
   <si>
-    <t>摩蘇爾</t>
+    <t>摩苏尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8F%90%E5%85%8B%E9%87%8C%E7%89%B9</t>
@@ -653,7 +647,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%8B%92%E9%98%BF%E8%B2%BB%E7%88%BE</t>
   </si>
   <si>
-    <t>泰勒阿費爾</t>
+    <t>泰勒阿费尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%B7%B4%E5%B0%94%E7%9C%81</t>
@@ -695,9 +689,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E8%8B%8F%E5%B0%94</t>
   </si>
   <si>
-    <t>摩苏尔</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E8%8A%B1</t>
   </si>
   <si>
@@ -713,7 +704,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%8B%89%E5%85%8B%E8%A1%8C%E6%94%BF%E5%8D%80%E5%8A%83</t>
   </si>
   <si>
-    <t>伊拉克行政區劃</t>
+    <t>伊拉克行政区划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E8%8E%B1%E5%8D%9C%E6%9D%B0%E7%9C%81</t>
@@ -737,55 +728,52 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E7%88%BE%E6%AF%94%E5%8B%92%E7%9C%81</t>
   </si>
   <si>
-    <t>埃爾比勒省</t>
+    <t>埃尔比勒省</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%88%BE%E5%BA%AB%E5%85%8B%E7%9C%81</t>
   </si>
   <si>
-    <t>基爾庫克省</t>
+    <t>基尔库克省</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E8%90%8A%E6%9B%BC%E5%B0%BC%E4%BA%9E%E7%9C%81</t>
   </si>
   <si>
-    <t>蘇萊曼尼亞省</t>
+    <t>苏莱曼尼亚省</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E6%8B%89%E8%B5%AB%E4%B8%81%E7%9C%81</t>
   </si>
   <si>
-    <t>薩拉赫丁省</t>
+    <t>萨拉赫丁省</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%B7%B4%E7%88%BE%E7%9C%81</t>
   </si>
   <si>
-    <t>安巴爾省</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%A0%BC%E9%81%94%E7%9C%81</t>
   </si>
   <si>
-    <t>巴格達省</t>
+    <t>巴格达省</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BF%AA%E4%BA%9E%E6%8B%89%E7%9C%81</t>
   </si>
   <si>
-    <t>迪亞拉省</t>
+    <t>迪亚拉省</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E7%88%BE%E5%B7%B4%E6%8B%89%E7%9C%81</t>
   </si>
   <si>
-    <t>卡爾巴拉省</t>
+    <t>卡尔巴拉省</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%AF%94%E5%80%AB%E7%9C%81</t>
   </si>
   <si>
-    <t>巴比倫省</t>
+    <t>巴比伦省</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%93%A6%E8%A5%BF%E7%89%B9%E7%9C%81</t>
@@ -797,13 +785,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E5%82%91%E5%A4%AB%E7%9C%81</t>
   </si>
   <si>
-    <t>納傑夫省</t>
+    <t>纳杰夫省</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E8%BF%AA%E8%A5%BF%E4%BA%9E%E7%9C%81</t>
   </si>
   <si>
-    <t>卡迪西亞省</t>
+    <t>卡迪西亚省</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E6%A1%91%E7%9C%81</t>
@@ -815,13 +803,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A9%86%E8%96%A9%E7%B4%8D%E7%9C%81</t>
   </si>
   <si>
-    <t>穆薩納省</t>
+    <t>穆萨纳省</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BF%9F%E5%8A%A0%E7%88%BE%E7%9C%81</t>
   </si>
   <si>
-    <t>濟加爾省</t>
+    <t>济加尔省</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%A3%AB%E6%8B%89%E7%9C%81</t>
@@ -845,7 +833,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AD%AF%E9%82%81%E6%8B%89%E6%B2%B9%E7%94%B0</t>
   </si>
   <si>
-    <t>魯邁拉油田</t>
+    <t>鲁迈拉油田</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD</t>
@@ -905,7 +893,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E5%BA%AB%E6%9B%BC%E4%BA%BA</t>
   </si>
   <si>
-    <t>土庫曼人</t>
+    <t>土库曼人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E5%8A%A0%E7%B4%A2%E4%BA%BA</t>
@@ -941,7 +929,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E6%96%B9%E4%BA%9E%E8%BF%B0%E6%95%99%E6%9C%83</t>
   </si>
   <si>
-    <t>東方亞述教會</t>
+    <t>东方亚述教会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BF%A6%E5%8B%92%E5%BA%95</t>
@@ -1007,13 +995,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%8B%89%E5%85%8B%E5%BA%AB%E5%BE%B7%E6%96%AF%E5%9D%A6</t>
   </si>
   <si>
-    <t>伊拉克庫德斯坦</t>
+    <t>伊拉克库德斯坦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E5%B0%8E%E9%81%8A</t>
   </si>
   <si>
-    <t>維基導遊</t>
+    <t>维基导游</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E6%A6%82%E5%86%B5</t>
@@ -1031,13 +1019,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E7%83%8F%E5%9C%B0%E9%98%BF%E6%8B%89%E4%BC%AF</t>
   </si>
   <si>
-    <t>沙烏地阿拉伯</t>
+    <t>沙乌地阿拉伯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E4%BA%9E%E6%B4%B2</t>
   </si>
   <si>
-    <t>Template talk-亞洲</t>
+    <t>Template talk-亚洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E4%BA%9A</t>
@@ -1079,13 +1067,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B</t>
   </si>
   <si>
-    <t>中華民國</t>
+    <t>中华民国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>臺灣地區</t>
+    <t>台湾地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E5%8D%97%E4%BA%9A</t>
@@ -1283,7 +1271,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B8%83%E5%93%88%E8%8C%B2</t>
   </si>
   <si>
-    <t>阿布哈茲</t>
+    <t>阿布哈兹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%A5%A5%E5%A1%9E%E6%A2%AF</t>
@@ -1325,7 +1313,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%BE%8E%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>亞美尼亞</t>
+    <t>亚美尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%9F%E9%97%A8</t>
@@ -1343,13 +1331,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%BD%E6%99%AE%E5%8B%92%E6%96%AF</t>
   </si>
   <si>
-    <t>賽普勒斯</t>
+    <t>赛普勒斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E8%B3%BD%E6%99%AE%E5%8B%92%E6%96%AF</t>
   </si>
   <si>
-    <t>北賽普勒斯</t>
+    <t>北赛普勒斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E4%BA%9A</t>
@@ -1373,13 +1361,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%85%8B%E7%BE%85%E6%8F%90%E5%88%A9%E8%88%87%E5%BE%B7%E5%87%B1%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>亞克羅提利與德凱利亞</t>
+    <t>亚克罗提利与德凯利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%B1%AC%E5%8D%B0%E5%BA%A6%E6%B4%8B%E9%A0%98%E5%9C%B0</t>
   </si>
   <si>
-    <t>英屬印度洋領地</t>
+    <t>英属印度洋领地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E8%AF%9E%E5%B2%9B</t>
@@ -1391,7 +1379,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%A7%91%E6%96%AF%EF%BC%88%E5%9F%BA%E6%9E%97%EF%BC%89%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>科科斯（基林）群島</t>
+    <t>科科斯（基林）群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF</t>
@@ -1403,7 +1391,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E9%96%80</t>
   </si>
   <si>
-    <t>澳門</t>
+    <t>澳门</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%89%E9%99%90%E6%89%BF%E8%AE%A4%E5%9B%BD%E5%AE%B6%E5%88%97%E8%A1%A8</t>
@@ -1427,9 +1415,6 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2</t>
   </si>
   <si>
-    <t>亞洲</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%9E%81%E6%B4%B2</t>
   </si>
   <si>
@@ -1439,7 +1424,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2</t>
   </si>
   <si>
-    <t>歐洲</t>
+    <t>欧洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%B4%8B%E6%B4%B2</t>
@@ -1469,13 +1454,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E8%81%AF%E5%90%88%E5%A4%A7%E5%85%AC%E5%9C%8B</t>
   </si>
   <si>
-    <t>阿拉伯聯合大公國</t>
+    <t>阿拉伯联合大公国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%89%E9%96%80</t>
   </si>
   <si>
-    <t>葉門</t>
+    <t>叶门</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E5%A7%86%E5%9C%B0%E5%8C%BA</t>
@@ -1535,7 +1520,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AA%81%E5%B0%BC%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>突尼西亞</t>
+    <t>突尼西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%AF%94%E4%BA%9A</t>
@@ -1559,7 +1544,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E9%A6%AC%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>索馬利亞</t>
+    <t>索马利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%89%E5%B8%83%E6%8F%90</t>
@@ -1625,7 +1610,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%9B%E9%98%BF%E6%8B%89%E4%BC%AF%E9%A1%8F%E8%89%B2</t>
   </si>
   <si>
-    <t>泛阿拉伯顏色</t>
+    <t>泛阿拉伯颜色</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9F%B3%E6%B2%B9%E8%BE%93%E5%87%BA%E5%9B%BD%E7%BB%84%E7%BB%87</t>
@@ -1643,7 +1628,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%88%E5%8F%8A%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>奈及利亞</t>
+    <t>奈及利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%93%A5%E6%8B%89</t>
@@ -1679,13 +1664,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%85%A7%E7%91%9E%E6%8B%89</t>
   </si>
   <si>
-    <t>委內瑞拉</t>
+    <t>委内瑞拉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%BB%E5%88%A9%E7%B6%AD%E4%BA%9E</t>
   </si>
   <si>
-    <t>玻利維亞</t>
+    <t>玻利维亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%A5%BF</t>
@@ -1697,9 +1682,6 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%88%BE%E5%8F%8A%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>阿爾及利亞</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%9B%E6%91%A9</t>
   </si>
   <si>
@@ -1715,37 +1697,31 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E6%97%A6</t>
   </si>
   <si>
-    <t>約旦</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8C%85%E5%88%A9%E5%A1%94%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>茅利塔尼亞</t>
+    <t>茅利塔尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%8B%92%E6%96%AF%E5%9D%A6%E5%9C%8B</t>
   </si>
   <si>
-    <t>巴勒斯坦國</t>
+    <t>巴勒斯坦国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E4%B8%B9%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>蘇丹共和國</t>
+    <t>苏丹共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%98%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>敘利亞</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8E%84%E5%88%A9%E5%9E%82%E4%BA%9E</t>
   </si>
   <si>
-    <t>厄利垂亞</t>
+    <t>厄利垂亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E5%85%B0%E5%90%88%E4%BD%9C%E7%BB%84%E7%BB%87</t>
@@ -1769,7 +1745,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%90%89%E7%B4%8D%E6%B3%95%E7%B4%A2</t>
   </si>
   <si>
-    <t>布吉納法索</t>
+    <t>布吉纳法索</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%96%80%E9%BA%A6%E9%9A%86</t>
@@ -1859,7 +1835,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E5%88%A9%E5%8D%97</t>
   </si>
   <si>
-    <t>蘇利南</t>
+    <t>苏利南</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E5%93%A5</t>
@@ -1883,19 +1859,16 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%9D%9E%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>中非共和國</t>
+    <t>中非共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%BE%8B%E8%B3%93</t>
   </si>
   <si>
-    <t>菲律賓</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E6%B4%9B%E6%B0%91%E6%97%8F%E8%A7%A3%E6%94%BE%E9%99%A3%E7%B7%9A</t>
   </si>
   <si>
-    <t>莫洛民族解放陣線</t>
+    <t>莫洛民族解放阵线</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Parliamentary_Union_of_the_OIC_Member_States</t>
@@ -1925,45 +1898,27 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B</t>
   </si>
   <si>
-    <t>聯合國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E6%9C%83%E5%93%A1%E5%9C%8B%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>聯合國會員國列表</t>
+    <t>联合国会员国列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E4%BE%86%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>馬來西亞</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E6%B3%8A%E7%88%BE</t>
   </si>
   <si>
-    <t>尼泊爾</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF</t>
   </si>
   <si>
-    <t>俄羅斯</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E9%87%8C%E8%98%AD%E5%8D%A1</t>
   </si>
   <si>
-    <t>斯里蘭卡</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%9C%8B</t>
   </si>
   <si>
-    <t>泰國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E6%88%88%E5%B0%94%E8%AF%BA-%E5%8D%A1%E6%8B%89%E5%B7%B4%E8%B5%AB%E5%85%B1%E5%92%8C%E5%9B%BD</t>
   </si>
   <si>
@@ -1973,7 +1928,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3</t>
   </si>
   <si>
-    <t>臺灣</t>
+    <t>台湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%85%8B%E7%BD%97%E8%92%82%E9%87%8C%E5%92%8C%E6%B3%BD%E5%87%AF%E5%88%A9%E4%BA%9A</t>
@@ -1985,37 +1940,37 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E8%87%BA%E5%8C%97</t>
   </si>
   <si>
-    <t>中華臺北</t>
+    <t>中华台北</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%A4%A7%E6%9C%832758%E8%99%9F%E6%B1%BA%E8%AD%B0</t>
   </si>
   <si>
-    <t>聯合國大會2758號決議</t>
+    <t>联合国大会2758号决议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E5%95%8F%E9%A1%8C</t>
   </si>
   <si>
-    <t>台灣問題</t>
+    <t>台湾问题</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E6%B5%B7%E7%8F%BE%E7%8B%80</t>
   </si>
   <si>
-    <t>台海現狀</t>
+    <t>台海现状</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%A4%A7%E6%9C%83%E8%A7%80%E5%AF%9F%E5%93%A1%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>聯合國大會觀察員列表</t>
+    <t>联合国大会观察员列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -2039,7 +1994,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>大學文檔系統</t>
+    <t>大学文档系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -2051,13 +2006,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB%E6%AD%B7%E5%8F%B2%E8%BE%AD%E5%85%B8</t>
   </si>
   <si>
-    <t>瑞士歷史辭典</t>
+    <t>瑞士历史辞典</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
@@ -2660,7 +2615,7 @@
         <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="G9" t="n">
         <v>3</v>
@@ -2686,10 +2641,10 @@
         <v>9</v>
       </c>
       <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
         <v>19</v>
-      </c>
-      <c r="F10" t="s">
-        <v>20</v>
       </c>
       <c r="G10" t="n">
         <v>3</v>
@@ -2715,10 +2670,10 @@
         <v>10</v>
       </c>
       <c r="E11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" t="s">
         <v>21</v>
-      </c>
-      <c r="F11" t="s">
-        <v>22</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
@@ -2744,10 +2699,10 @@
         <v>11</v>
       </c>
       <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" t="s">
         <v>23</v>
-      </c>
-      <c r="F12" t="s">
-        <v>24</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
@@ -2773,10 +2728,10 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" t="s">
         <v>25</v>
-      </c>
-      <c r="F13" t="s">
-        <v>26</v>
       </c>
       <c r="G13" t="n">
         <v>2</v>
@@ -2802,10 +2757,10 @@
         <v>13</v>
       </c>
       <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
         <v>27</v>
-      </c>
-      <c r="F14" t="s">
-        <v>28</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
@@ -2831,10 +2786,10 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" t="s">
         <v>29</v>
-      </c>
-      <c r="F15" t="s">
-        <v>30</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
@@ -2860,10 +2815,10 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" t="s">
         <v>31</v>
-      </c>
-      <c r="F16" t="s">
-        <v>32</v>
       </c>
       <c r="G16" t="n">
         <v>9</v>
@@ -2889,10 +2844,10 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" t="s">
         <v>33</v>
-      </c>
-      <c r="F17" t="s">
-        <v>34</v>
       </c>
       <c r="G17" t="n">
         <v>9</v>
@@ -2918,10 +2873,10 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" t="s">
         <v>35</v>
-      </c>
-      <c r="F18" t="s">
-        <v>36</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -2947,10 +2902,10 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" t="s">
         <v>37</v>
-      </c>
-      <c r="F19" t="s">
-        <v>38</v>
       </c>
       <c r="G19" t="n">
         <v>5</v>
@@ -2976,10 +2931,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" t="s">
         <v>39</v>
-      </c>
-      <c r="F20" t="s">
-        <v>40</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
@@ -3005,10 +2960,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" t="s">
         <v>41</v>
-      </c>
-      <c r="F21" t="s">
-        <v>42</v>
       </c>
       <c r="G21" t="n">
         <v>2</v>
@@ -3034,10 +2989,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" t="s">
         <v>43</v>
-      </c>
-      <c r="F22" t="s">
-        <v>44</v>
       </c>
       <c r="G22" t="n">
         <v>2</v>
@@ -3063,10 +3018,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
         <v>45</v>
-      </c>
-      <c r="F23" t="s">
-        <v>46</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -3092,10 +3047,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" t="s">
         <v>47</v>
-      </c>
-      <c r="F24" t="s">
-        <v>48</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -3121,10 +3076,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" t="s">
         <v>49</v>
-      </c>
-      <c r="F25" t="s">
-        <v>50</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -3150,10 +3105,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" t="s">
         <v>51</v>
-      </c>
-      <c r="F26" t="s">
-        <v>52</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -3179,10 +3134,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" t="s">
         <v>53</v>
-      </c>
-      <c r="F27" t="s">
-        <v>54</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -3208,10 +3163,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" t="s">
         <v>55</v>
-      </c>
-      <c r="F28" t="s">
-        <v>56</v>
       </c>
       <c r="G28" t="n">
         <v>2</v>
@@ -3237,10 +3192,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" t="s">
         <v>57</v>
-      </c>
-      <c r="F29" t="s">
-        <v>58</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -3266,10 +3221,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" t="s">
         <v>59</v>
-      </c>
-      <c r="F30" t="s">
-        <v>60</v>
       </c>
       <c r="G30" t="n">
         <v>5</v>
@@ -3295,10 +3250,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" t="s">
         <v>61</v>
-      </c>
-      <c r="F31" t="s">
-        <v>62</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -3324,10 +3279,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" t="s">
         <v>63</v>
-      </c>
-      <c r="F32" t="s">
-        <v>64</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -3353,10 +3308,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" t="s">
         <v>65</v>
-      </c>
-      <c r="F33" t="s">
-        <v>66</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -3382,10 +3337,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" t="s">
         <v>67</v>
-      </c>
-      <c r="F34" t="s">
-        <v>68</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -3411,10 +3366,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" t="s">
         <v>69</v>
-      </c>
-      <c r="F35" t="s">
-        <v>70</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -3440,10 +3395,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" t="s">
         <v>71</v>
-      </c>
-      <c r="F36" t="s">
-        <v>72</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -3469,10 +3424,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" t="s">
         <v>73</v>
-      </c>
-      <c r="F37" t="s">
-        <v>74</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -3498,10 +3453,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" t="s">
         <v>75</v>
-      </c>
-      <c r="F38" t="s">
-        <v>76</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -3527,10 +3482,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" t="s">
         <v>77</v>
-      </c>
-      <c r="F39" t="s">
-        <v>78</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -3556,10 +3511,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" t="s">
         <v>79</v>
-      </c>
-      <c r="F40" t="s">
-        <v>80</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -3585,10 +3540,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" t="s">
         <v>81</v>
-      </c>
-      <c r="F41" t="s">
-        <v>82</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -3614,10 +3569,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>82</v>
+      </c>
+      <c r="F42" t="s">
         <v>83</v>
-      </c>
-      <c r="F42" t="s">
-        <v>84</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -3643,10 +3598,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>84</v>
+      </c>
+      <c r="F43" t="s">
         <v>85</v>
-      </c>
-      <c r="F43" t="s">
-        <v>86</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -3672,10 +3627,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>86</v>
+      </c>
+      <c r="F44" t="s">
         <v>87</v>
-      </c>
-      <c r="F44" t="s">
-        <v>88</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -3701,10 +3656,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" t="s">
         <v>89</v>
-      </c>
-      <c r="F45" t="s">
-        <v>90</v>
       </c>
       <c r="G45" t="n">
         <v>5</v>
@@ -3730,10 +3685,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>90</v>
+      </c>
+      <c r="F46" t="s">
         <v>91</v>
-      </c>
-      <c r="F46" t="s">
-        <v>92</v>
       </c>
       <c r="G46" t="n">
         <v>2</v>
@@ -3759,10 +3714,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>92</v>
+      </c>
+      <c r="F47" t="s">
         <v>93</v>
-      </c>
-      <c r="F47" t="s">
-        <v>94</v>
       </c>
       <c r="G47" t="n">
         <v>5</v>
@@ -3788,10 +3743,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>94</v>
+      </c>
+      <c r="F48" t="s">
         <v>95</v>
-      </c>
-      <c r="F48" t="s">
-        <v>96</v>
       </c>
       <c r="G48" t="n">
         <v>14</v>
@@ -3817,10 +3772,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>96</v>
+      </c>
+      <c r="F49" t="s">
         <v>97</v>
-      </c>
-      <c r="F49" t="s">
-        <v>98</v>
       </c>
       <c r="G49" t="n">
         <v>7</v>
@@ -3846,10 +3801,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>98</v>
+      </c>
+      <c r="F50" t="s">
         <v>99</v>
-      </c>
-      <c r="F50" t="s">
-        <v>100</v>
       </c>
       <c r="G50" t="n">
         <v>8</v>
@@ -3875,10 +3830,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>100</v>
+      </c>
+      <c r="F51" t="s">
         <v>101</v>
-      </c>
-      <c r="F51" t="s">
-        <v>102</v>
       </c>
       <c r="G51" t="n">
         <v>11</v>
@@ -3904,10 +3859,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>102</v>
+      </c>
+      <c r="F52" t="s">
         <v>103</v>
-      </c>
-      <c r="F52" t="s">
-        <v>104</v>
       </c>
       <c r="G52" t="n">
         <v>6</v>
@@ -3933,10 +3888,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>104</v>
+      </c>
+      <c r="F53" t="s">
         <v>105</v>
-      </c>
-      <c r="F53" t="s">
-        <v>106</v>
       </c>
       <c r="G53" t="n">
         <v>3</v>
@@ -3962,10 +3917,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>106</v>
+      </c>
+      <c r="F54" t="s">
         <v>107</v>
-      </c>
-      <c r="F54" t="s">
-        <v>108</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -3991,10 +3946,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>108</v>
+      </c>
+      <c r="F55" t="s">
         <v>109</v>
-      </c>
-      <c r="F55" t="s">
-        <v>110</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -4020,10 +3975,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>110</v>
+      </c>
+      <c r="F56" t="s">
         <v>111</v>
-      </c>
-      <c r="F56" t="s">
-        <v>112</v>
       </c>
       <c r="G56" t="n">
         <v>3</v>
@@ -4049,10 +4004,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>112</v>
+      </c>
+      <c r="F57" t="s">
         <v>113</v>
-      </c>
-      <c r="F57" t="s">
-        <v>114</v>
       </c>
       <c r="G57" t="n">
         <v>4</v>
@@ -4078,10 +4033,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>114</v>
+      </c>
+      <c r="F58" t="s">
         <v>115</v>
-      </c>
-      <c r="F58" t="s">
-        <v>116</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -4107,10 +4062,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>116</v>
+      </c>
+      <c r="F59" t="s">
         <v>117</v>
-      </c>
-      <c r="F59" t="s">
-        <v>118</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -4136,10 +4091,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>118</v>
+      </c>
+      <c r="F60" t="s">
         <v>119</v>
-      </c>
-      <c r="F60" t="s">
-        <v>120</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -4165,10 +4120,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>120</v>
+      </c>
+      <c r="F61" t="s">
         <v>121</v>
-      </c>
-      <c r="F61" t="s">
-        <v>122</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -4194,10 +4149,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>122</v>
+      </c>
+      <c r="F62" t="s">
         <v>123</v>
-      </c>
-      <c r="F62" t="s">
-        <v>124</v>
       </c>
       <c r="G62" t="n">
         <v>3</v>
@@ -4223,10 +4178,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>124</v>
+      </c>
+      <c r="F63" t="s">
         <v>125</v>
-      </c>
-      <c r="F63" t="s">
-        <v>126</v>
       </c>
       <c r="G63" t="n">
         <v>6</v>
@@ -4252,10 +4207,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>126</v>
+      </c>
+      <c r="F64" t="s">
         <v>127</v>
-      </c>
-      <c r="F64" t="s">
-        <v>128</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -4281,10 +4236,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>128</v>
+      </c>
+      <c r="F65" t="s">
         <v>129</v>
-      </c>
-      <c r="F65" t="s">
-        <v>130</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -4310,10 +4265,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F66" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="G66" t="n">
         <v>2</v>
@@ -4339,10 +4294,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F67" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -4368,10 +4323,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F68" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -4397,10 +4352,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F69" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G69" t="n">
         <v>2</v>
@@ -4426,10 +4381,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F70" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G70" t="n">
         <v>2</v>
@@ -4455,10 +4410,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F71" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G71" t="n">
         <v>2</v>
@@ -4484,10 +4439,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F72" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -4513,10 +4468,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F73" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G73" t="n">
         <v>40</v>
@@ -4542,10 +4497,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F74" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -4571,10 +4526,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F75" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -4600,10 +4555,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F76" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G76" t="n">
         <v>2</v>
@@ -4629,10 +4584,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F77" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -4658,10 +4613,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F78" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -4687,10 +4642,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F79" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -4716,10 +4671,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F80" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -4745,10 +4700,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F81" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G81" t="n">
         <v>5</v>
@@ -4774,10 +4729,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F82" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G82" t="n">
         <v>2</v>
@@ -4803,10 +4758,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F83" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G83" t="n">
         <v>3</v>
@@ -4832,10 +4787,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F84" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -4861,10 +4816,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F85" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -4890,10 +4845,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F86" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G86" t="n">
         <v>2</v>
@@ -4919,10 +4874,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F87" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -4948,10 +4903,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F88" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -4977,10 +4932,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F89" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G89" t="n">
         <v>2</v>
@@ -5006,10 +4961,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F90" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -5035,10 +4990,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F91" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G91" t="n">
         <v>2</v>
@@ -5064,10 +5019,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F92" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -5093,10 +5048,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F93" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G93" t="n">
         <v>2</v>
@@ -5122,10 +5077,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F94" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -5151,10 +5106,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F95" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -5180,10 +5135,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F96" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -5209,10 +5164,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F97" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -5238,10 +5193,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F98" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -5267,10 +5222,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F99" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G99" t="n">
         <v>4</v>
@@ -5296,10 +5251,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F100" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G100" t="n">
         <v>4</v>
@@ -5325,10 +5280,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F101" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G101" t="n">
         <v>2</v>
@@ -5354,10 +5309,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F102" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G102" t="n">
         <v>4</v>
@@ -5383,10 +5338,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F103" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -5412,10 +5367,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F104" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G104" t="n">
         <v>2</v>
@@ -5441,10 +5396,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F105" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -5470,10 +5425,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F106" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -5499,10 +5454,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F107" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -5528,10 +5483,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F108" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G108" t="n">
         <v>2</v>
@@ -5557,10 +5512,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F109" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G109" t="n">
         <v>2</v>
@@ -5586,10 +5541,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F110" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G110" t="n">
         <v>2</v>
@@ -5615,10 +5570,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F111" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -5644,10 +5599,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F112" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G112" t="n">
         <v>3</v>
@@ -5673,10 +5628,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F113" t="s">
-        <v>226</v>
+        <v>206</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -5702,10 +5657,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F114" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -5731,10 +5686,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F115" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -5760,10 +5715,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F116" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -5789,10 +5744,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F117" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G117" t="n">
         <v>2</v>
@@ -5818,10 +5773,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F118" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -5847,10 +5802,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F119" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -5876,10 +5831,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F120" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -5905,10 +5860,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F121" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -5934,10 +5889,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F122" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -5963,10 +5918,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F123" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -5992,10 +5947,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F124" t="s">
-        <v>248</v>
+        <v>212</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -6021,10 +5976,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F125" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -6050,10 +6005,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F126" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -6079,10 +6034,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F127" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -6108,10 +6063,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F128" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -6137,10 +6092,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F129" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -6166,10 +6121,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F130" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -6195,10 +6150,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F131" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -6224,10 +6179,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F132" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -6253,10 +6208,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F133" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -6282,10 +6237,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F134" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -6311,10 +6266,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F135" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -6340,10 +6295,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F136" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -6369,10 +6324,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F137" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -6398,10 +6353,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F138" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -6427,10 +6382,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F139" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G139" t="n">
         <v>9</v>
@@ -6456,10 +6411,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F140" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -6485,10 +6440,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F141" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -6514,10 +6469,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F142" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -6543,10 +6498,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="F143" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -6572,10 +6527,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="F144" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -6601,10 +6556,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F145" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -6630,10 +6585,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F146" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="G146" t="n">
         <v>6</v>
@@ -6659,10 +6614,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F147" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G147" t="n">
         <v>2</v>
@@ -6688,10 +6643,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F148" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -6717,10 +6672,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="F149" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -6746,10 +6701,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="F150" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -6775,10 +6730,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="F151" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -6804,10 +6759,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="F152" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -6833,10 +6788,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F153" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="G153" t="n">
         <v>6</v>
@@ -6862,10 +6817,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F154" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="G154" t="n">
         <v>5</v>
@@ -6891,10 +6846,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F155" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6920,10 +6875,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="F156" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6949,10 +6904,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F157" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6978,10 +6933,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F158" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -7007,10 +6962,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F159" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="G159" t="n">
         <v>2</v>
@@ -7036,10 +6991,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F160" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -7065,10 +7020,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="F161" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -7094,10 +7049,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="F162" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="G162" t="n">
         <v>2</v>
@@ -7123,10 +7078,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="F163" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -7152,10 +7107,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="F164" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -7181,10 +7136,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="F165" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -7210,10 +7165,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
+        <v>32</v>
+      </c>
+      <c r="F166" t="s">
         <v>33</v>
-      </c>
-      <c r="F166" t="s">
-        <v>34</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -7239,10 +7194,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
+        <v>36</v>
+      </c>
+      <c r="F167" t="s">
         <v>37</v>
-      </c>
-      <c r="F167" t="s">
-        <v>38</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -7268,10 +7223,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F168" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -7297,10 +7252,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="F169" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -7326,10 +7281,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="F170" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -7355,10 +7310,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="F171" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -7384,10 +7339,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F172" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="G172" t="n">
         <v>4</v>
@@ -7413,10 +7368,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="F173" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="G173" t="n">
         <v>7</v>
@@ -7442,10 +7397,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F174" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -7471,10 +7426,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="F175" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="G175" t="n">
         <v>2</v>
@@ -7500,10 +7455,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="F176" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="G176" t="n">
         <v>2</v>
@@ -7529,10 +7484,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F177" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="G177" t="n">
         <v>2</v>
@@ -7558,10 +7513,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="F178" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="G178" t="n">
         <v>2</v>
@@ -7587,10 +7542,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F179" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="G179" t="n">
         <v>2</v>
@@ -7616,10 +7571,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="F180" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G180" t="n">
         <v>2</v>
@@ -7645,10 +7600,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F181" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -7674,10 +7629,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="F182" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -7703,10 +7658,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="F183" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -7732,10 +7687,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F184" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -7761,10 +7716,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F185" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="G185" t="n">
         <v>2</v>
@@ -7790,10 +7745,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="F186" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="G186" t="n">
         <v>2</v>
@@ -7819,10 +7774,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="F187" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="G187" t="n">
         <v>2</v>
@@ -7848,10 +7803,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="F188" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G188" t="n">
         <v>2</v>
@@ -7877,10 +7832,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="F189" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="G189" t="n">
         <v>2</v>
@@ -7906,10 +7861,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="F190" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="G190" t="n">
         <v>3</v>
@@ -7935,10 +7890,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="F191" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="G191" t="n">
         <v>2</v>
@@ -7964,10 +7919,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="F192" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="G192" t="n">
         <v>2</v>
@@ -7993,10 +7948,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="F193" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G193" t="n">
         <v>2</v>
@@ -8022,10 +7977,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="F194" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="G194" t="n">
         <v>2</v>
@@ -8051,10 +8006,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F195" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="G195" t="n">
         <v>2</v>
@@ -8080,10 +8035,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="F196" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="G196" t="n">
         <v>3</v>
@@ -8109,10 +8064,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F197" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="G197" t="n">
         <v>3</v>
@@ -8138,10 +8093,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="F198" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="G198" t="n">
         <v>3</v>
@@ -8167,10 +8122,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="F199" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -8196,10 +8151,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="F200" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -8225,10 +8180,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="F201" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="G201" t="n">
         <v>7</v>
@@ -8254,10 +8209,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="F202" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -8283,10 +8238,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="F203" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="G203" t="n">
         <v>3</v>
@@ -8312,10 +8267,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="F204" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="G204" t="n">
         <v>3</v>
@@ -8341,10 +8296,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="F205" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G205" t="n">
         <v>3</v>
@@ -8370,10 +8325,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F206" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="G206" t="n">
         <v>3</v>
@@ -8399,10 +8354,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="F207" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="G207" t="n">
         <v>3</v>
@@ -8428,10 +8383,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="F208" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G208" t="n">
         <v>5</v>
@@ -8457,10 +8412,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="F209" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="G209" t="n">
         <v>3</v>
@@ -8486,10 +8441,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="F210" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="G210" t="n">
         <v>2</v>
@@ -8515,10 +8470,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="F211" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="G211" t="n">
         <v>5</v>
@@ -8544,10 +8499,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="F212" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="G212" t="n">
         <v>3</v>
@@ -8573,10 +8528,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="F213" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -8602,10 +8557,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="F214" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -8631,10 +8586,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="F215" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="G215" t="n">
         <v>2</v>
@@ -8660,10 +8615,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="F216" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="G216" t="n">
         <v>7</v>
@@ -8689,10 +8644,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="F217" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="G217" t="n">
         <v>5</v>
@@ -8718,10 +8673,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="F218" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="G218" t="n">
         <v>2</v>
@@ -8747,10 +8702,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="F219" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="G219" t="n">
         <v>6</v>
@@ -8776,10 +8731,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="F220" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="G220" t="n">
         <v>5</v>
@@ -8805,10 +8760,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="F221" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="G221" t="n">
         <v>2</v>
@@ -8834,10 +8789,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="F222" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="G222" t="n">
         <v>3</v>
@@ -8863,10 +8818,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="F223" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="G223" t="n">
         <v>4</v>
@@ -8892,10 +8847,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="F224" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="G224" t="n">
         <v>2</v>
@@ -8921,10 +8876,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="F225" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -8950,10 +8905,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="F226" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -8979,10 +8934,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="F227" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="G227" t="n">
         <v>2</v>
@@ -9008,10 +8963,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="F228" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -9037,10 +8992,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="F229" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -9066,10 +9021,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="F230" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="G230" t="n">
         <v>2</v>
@@ -9095,10 +9050,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="F231" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -9124,10 +9079,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="F232" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G232" t="n">
         <v>2</v>
@@ -9153,10 +9108,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="F233" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="G233" t="n">
         <v>3</v>
@@ -9182,10 +9137,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="F234" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="G234" t="n">
         <v>3</v>
@@ -9211,10 +9166,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="F235" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -9240,10 +9195,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="F236" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -9269,10 +9224,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="F237" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -9298,10 +9253,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="F238" t="s">
-        <v>470</v>
+        <v>89</v>
       </c>
       <c r="G238" t="n">
         <v>3</v>
@@ -9327,10 +9282,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="F239" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -9356,10 +9311,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="F240" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -9385,10 +9340,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="F241" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="G241" t="n">
         <v>2</v>
@@ -9414,10 +9369,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="F242" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -9443,10 +9398,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="F243" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="G243" t="n">
         <v>3</v>
@@ -9472,10 +9427,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="F244" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -9501,10 +9456,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="F245" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="G245" t="n">
         <v>3</v>
@@ -9530,10 +9485,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="F246" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="G246" t="n">
         <v>2</v>
@@ -9559,10 +9514,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="F247" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -9588,10 +9543,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="F248" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="G248" t="n">
         <v>4</v>
@@ -9617,10 +9572,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="F249" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9646,10 +9601,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="F250" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="G250" t="n">
         <v>4</v>
@@ -9675,10 +9630,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="F251" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="G251" t="n">
         <v>3</v>
@@ -9704,10 +9659,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="F252" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="G252" t="n">
         <v>2</v>
@@ -9733,10 +9688,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="F253" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="G253" t="n">
         <v>3</v>
@@ -9762,10 +9717,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="F254" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="G254" t="n">
         <v>3</v>
@@ -9791,10 +9746,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="F255" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="G255" t="n">
         <v>2</v>
@@ -9820,10 +9775,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="F256" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="G256" t="n">
         <v>2</v>
@@ -9849,10 +9804,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="F257" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="G257" t="n">
         <v>3</v>
@@ -9878,10 +9833,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="F258" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -9907,10 +9862,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="F259" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -9936,10 +9891,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="F260" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="G260" t="n">
         <v>2</v>
@@ -9965,10 +9920,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="F261" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="G261" t="n">
         <v>2</v>
@@ -9994,10 +9949,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="F262" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="G262" t="n">
         <v>2</v>
@@ -10023,10 +9978,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="F263" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="G263" t="n">
         <v>2</v>
@@ -10052,10 +10007,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="F264" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -10081,10 +10036,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="F265" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="G265" t="n">
         <v>2</v>
@@ -10110,10 +10065,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="F266" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -10139,10 +10094,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="F267" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -10168,10 +10123,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="F268" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -10197,10 +10152,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="F269" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="G269" t="n">
         <v>2</v>
@@ -10226,10 +10181,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="F270" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -10255,10 +10210,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="F271" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -10284,10 +10239,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="F272" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -10313,10 +10268,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="F273" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="G273" t="n">
         <v>4</v>
@@ -10342,10 +10297,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="F274" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -10371,10 +10326,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="F275" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -10400,10 +10355,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="F276" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -10429,10 +10384,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="F277" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -10458,10 +10413,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="F278" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -10487,10 +10442,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="F279" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -10516,10 +10471,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F280" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -10545,10 +10500,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="F281" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -10574,10 +10529,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="F282" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -10603,10 +10558,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="F283" t="s">
-        <v>560</v>
+        <v>497</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -10632,10 +10587,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="F284" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -10661,10 +10616,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="F285" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -10690,10 +10645,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="F286" t="s">
-        <v>566</v>
+        <v>103</v>
       </c>
       <c r="G286" t="n">
         <v>2</v>
@@ -10719,10 +10674,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="F287" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -10748,10 +10703,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="F288" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -10777,10 +10732,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="F289" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -10806,10 +10761,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="F290" t="s">
-        <v>574</v>
+        <v>99</v>
       </c>
       <c r="G290" t="n">
         <v>2</v>
@@ -10835,10 +10790,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="F291" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -10864,10 +10819,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="F292" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -10893,10 +10848,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="F293" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -10922,10 +10877,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="F294" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -10951,10 +10906,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="F295" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -10980,10 +10935,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="F296" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -11009,10 +10964,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="F297" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -11038,10 +10993,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="F298" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -11067,10 +11022,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="F299" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -11096,10 +11051,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="F300" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -11125,10 +11080,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="F301" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="G301" t="n">
         <v>3</v>
@@ -11154,10 +11109,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
       <c r="F302" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -11183,10 +11138,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="F303" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -11212,10 +11167,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="F304" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="G304" t="n">
         <v>2</v>
@@ -11241,10 +11196,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="F305" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -11270,10 +11225,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="F306" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -11299,10 +11254,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="F307" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -11328,10 +11283,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="F308" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -11357,10 +11312,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="F309" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -11386,10 +11341,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="F310" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -11415,10 +11370,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="F311" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -11444,10 +11399,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="F312" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -11473,10 +11428,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="F313" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -11502,10 +11457,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="F314" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -11531,10 +11486,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="F315" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -11560,10 +11515,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="F316" t="s">
-        <v>616</v>
+        <v>608</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -11589,10 +11544,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="F317" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -11618,10 +11573,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="F318" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -11647,10 +11602,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="F319" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -11676,10 +11631,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="F320" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -11705,10 +11660,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="F321" t="s">
-        <v>624</v>
+        <v>358</v>
       </c>
       <c r="G321" t="n">
         <v>2</v>
@@ -11734,10 +11689,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>625</v>
+        <v>616</v>
       </c>
       <c r="F322" t="s">
-        <v>626</v>
+        <v>617</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -11763,10 +11718,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>627</v>
+        <v>618</v>
       </c>
       <c r="F323" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -11792,10 +11747,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="F324" t="s">
-        <v>630</v>
+        <v>621</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -11821,10 +11776,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>631</v>
+        <v>622</v>
       </c>
       <c r="F325" t="s">
-        <v>632</v>
+        <v>623</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -11850,10 +11805,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="F326" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -11879,10 +11834,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>633</v>
+        <v>624</v>
       </c>
       <c r="F327" t="s">
-        <v>634</v>
+        <v>625</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -11908,10 +11863,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
       <c r="F328" t="s">
-        <v>636</v>
+        <v>274</v>
       </c>
       <c r="G328" t="n">
         <v>3</v>
@@ -11937,10 +11892,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>637</v>
+        <v>627</v>
       </c>
       <c r="F329" t="s">
-        <v>638</v>
+        <v>628</v>
       </c>
       <c r="G329" t="n">
         <v>2</v>
@@ -11966,10 +11921,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F330" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -11995,10 +11950,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="F331" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="G331" t="n">
         <v>3</v>
@@ -12024,10 +11979,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>639</v>
+        <v>629</v>
       </c>
       <c r="F332" t="s">
-        <v>640</v>
+        <v>364</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -12053,10 +12008,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>641</v>
+        <v>630</v>
       </c>
       <c r="F333" t="s">
-        <v>642</v>
+        <v>388</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
@@ -12082,10 +12037,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>643</v>
+        <v>631</v>
       </c>
       <c r="F334" t="s">
-        <v>644</v>
+        <v>444</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -12111,10 +12066,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>645</v>
+        <v>632</v>
       </c>
       <c r="F335" t="s">
-        <v>646</v>
+        <v>390</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -12140,10 +12095,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>647</v>
+        <v>633</v>
       </c>
       <c r="F336" t="s">
-        <v>648</v>
+        <v>368</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -12169,10 +12124,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="F337" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -12198,10 +12153,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="F338" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -12227,10 +12182,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="F339" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -12256,10 +12211,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="F340" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="G340" t="n">
         <v>2</v>
@@ -12285,10 +12240,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>649</v>
+        <v>634</v>
       </c>
       <c r="F341" t="s">
-        <v>650</v>
+        <v>635</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -12314,10 +12269,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>651</v>
+        <v>636</v>
       </c>
       <c r="F342" t="s">
-        <v>652</v>
+        <v>637</v>
       </c>
       <c r="G342" t="n">
         <v>2</v>
@@ -12343,10 +12298,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="F343" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -12372,10 +12327,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>653</v>
+        <v>638</v>
       </c>
       <c r="F344" t="s">
-        <v>654</v>
+        <v>639</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -12401,10 +12356,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="F345" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -12430,10 +12385,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>655</v>
+        <v>640</v>
       </c>
       <c r="F346" t="s">
-        <v>656</v>
+        <v>641</v>
       </c>
       <c r="G346" t="n">
         <v>1</v>
@@ -12459,10 +12414,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>657</v>
+        <v>642</v>
       </c>
       <c r="F347" t="s">
-        <v>658</v>
+        <v>643</v>
       </c>
       <c r="G347" t="n">
         <v>1</v>
@@ -12488,10 +12443,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>659</v>
+        <v>644</v>
       </c>
       <c r="F348" t="s">
-        <v>660</v>
+        <v>645</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -12517,10 +12472,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>661</v>
+        <v>646</v>
       </c>
       <c r="F349" t="s">
-        <v>662</v>
+        <v>647</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -12546,10 +12501,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>663</v>
+        <v>648</v>
       </c>
       <c r="F350" t="s">
-        <v>664</v>
+        <v>649</v>
       </c>
       <c r="G350" t="n">
         <v>2</v>
@@ -12575,10 +12530,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>665</v>
+        <v>650</v>
       </c>
       <c r="F351" t="s">
-        <v>666</v>
+        <v>651</v>
       </c>
       <c r="G351" t="n">
         <v>3</v>
@@ -12604,10 +12559,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>667</v>
+        <v>652</v>
       </c>
       <c r="F352" t="s">
-        <v>668</v>
+        <v>653</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -12633,10 +12588,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>669</v>
+        <v>654</v>
       </c>
       <c r="F353" t="s">
-        <v>670</v>
+        <v>655</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
@@ -12662,10 +12617,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>671</v>
+        <v>656</v>
       </c>
       <c r="F354" t="s">
-        <v>672</v>
+        <v>657</v>
       </c>
       <c r="G354" t="n">
         <v>1</v>
@@ -12691,10 +12646,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>673</v>
+        <v>658</v>
       </c>
       <c r="F355" t="s">
-        <v>674</v>
+        <v>659</v>
       </c>
       <c r="G355" t="n">
         <v>1</v>
@@ -12720,10 +12675,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>675</v>
+        <v>660</v>
       </c>
       <c r="F356" t="s">
-        <v>676</v>
+        <v>661</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -12749,10 +12704,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>677</v>
+        <v>662</v>
       </c>
       <c r="F357" t="s">
-        <v>678</v>
+        <v>663</v>
       </c>
       <c r="G357" t="n">
         <v>1</v>
@@ -12778,10 +12733,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>679</v>
+        <v>664</v>
       </c>
       <c r="F358" t="s">
-        <v>680</v>
+        <v>665</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>

--- a/xlsx/伊拉克_intext.xlsx
+++ b/xlsx/伊拉克_intext.xlsx
@@ -29,7 +29,7 @@
     <t>阿拉伯語</t>
   </si>
   <si>
-    <t>政策_政策_美國_伊拉克</t>
+    <t>体育运动_体育运动_伊朗_伊拉克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%AB%E5%BE%B7%E8%AA%9E</t>
